--- a/Holmes/Evaluation/Reproting/email_send_second_round/veracode_wrong_component_2023_11_17.xlsx
+++ b/Holmes/Evaluation/Reproting/email_send_second_round/veracode_wrong_component_2023_11_17.xlsx
@@ -40,10 +40,10 @@
     <t>CVE-2018-17031</t>
   </si>
   <si>
-    <t>go__fdse__gogs.io:gogs</t>
-  </si>
-  <si>
-    <t>go__fdse__github.com:gogs:gogs</t>
+    <t>go__split__gogs.io:gogs</t>
+  </si>
+  <si>
+    <t>go__split__github.com:gogs:gogs</t>
   </si>
   <si>
     <t>the patch is https://github.com/gogs/gogs/pull/6008/files#diff-5ba4125877fb56856b4bb75f14ff968c77cdee83e09ea4cefd9d24fc2d453923, we can find the go.mod in https://github.com/gogs/gogs/blob/3ddd102986aacbe3fdc53922121a2b606ede984a/go.mod, which is gogs.io:gogs</t>
@@ -52,62 +52,62 @@
     <t>CVE-2015-5317</t>
   </si>
   <si>
-    <t xml:space="preserve">maven__fdse__org.jenkins-ci.main:jenkins-core  </t>
-  </si>
-  <si>
-    <t>rpm__fdse__nodejs-semver
-rpm__fdse__openshift-origin-cartridge-python
-rpm__fdse__rubygem-openshift-origin-frontend-apache-vhost
-rpm__fdse__nodejs-normalize-path
-rpm__fdse__openshift-origin-cartridge-mysql
-rpm__fdse__nodejs-is-stream
-rpm__fdse__openshift-ansible
-rpm__fdse__openshift-origin-broker-util
-rpm__fdse__openvswitch
-rpm__fdse__nodejs-optimist
-rpm__fdse__nodejs-map-stream
-rpm__fdse__openshift-origin-node-util
-rpm__fdse__activemq
-rpm__fdse__nodejs-duplexify
-rpm__fdse__nodejs-got
-rpm__fdse__nodejs-readdirp
-rpm__fdse__nodejs-split
-rpm__fdse__jenkins
-rpm__fdse__php
-rpm__fdse__openshift-origin-cartridge-haproxy
-rpm__fdse__nodejs-rc
-rpm__fdse__openshift-origin-cartridge-php
-rpm__fdse__nodejs-slide
-rpm__fdse__openshift-origin-cartridge-cron
-rpm__fdse__nodejs-pinkie-promise
-rpm__fdse__nodejs-event-stream
-rpm__fdse__rubygem-openshift-origin-node
-rpm__fdse__rhc
-rpm__fdse__heapster
-rpm__fdse__nodejs-through
-rpm__fdse__nodejs-pause-stream
-rpm__fdse__rubygem-openshift-origin-common
-rpm__fdse__nodejs-mkdirp
-rpm__fdse__openshift-origin-node-proxy
-rpm__fdse__nodejs-kind-of
-rpm__fdse__nodejs-graceful-fs
-rpm__fdse__nodejs-registry-url
-rpm__fdse__atomic-openshift
-rpm__fdse__nodejs-object-assign
-rpm__fdse__nodejs-stream-combiner
-rpm__fdse__nodejs-pinkie
-rpm__fdse__nodejs-ini
-rpm__fdse__openshift-enterprise-upgrade
-rpm__fdse__nodejs-osenv
-rpm__fdse__nodejs-align-text
-rpm__fdse__rubygem-openshift-origin-controller
-rpm__fdse__nodejs-read-all-stream
-rpm__fdse__openshift-origin-msg-node-mcollective
-rpm__fdse__nodejs-from
-rpm__fdse__nodejs-prepend-http
-rpm__fdse__nodejs-lowercase-keys
-rpm__fdse__rubygem-openshift-origin-console
-rpm__fdse__origin-kibana</t>
+    <t xml:space="preserve">maven__split__org.jenkins-ci.main:jenkins-core  </t>
+  </si>
+  <si>
+    <t>rpm__split__nodejs-semver
+rpm__split__openshift-origin-cartridge-python
+rpm__split__rubygem-openshift-origin-frontend-apache-vhost
+rpm__split__nodejs-normalize-path
+rpm__split__openshift-origin-cartridge-mysql
+rpm__split__nodejs-is-stream
+rpm__split__openshift-ansible
+rpm__split__openshift-origin-broker-util
+rpm__split__openvswitch
+rpm__split__nodejs-optimist
+rpm__split__nodejs-map-stream
+rpm__split__openshift-origin-node-util
+rpm__split__activemq
+rpm__split__nodejs-duplexify
+rpm__split__nodejs-got
+rpm__split__nodejs-readdirp
+rpm__split__nodejs-split
+rpm__split__jenkins
+rpm__split__php
+rpm__split__openshift-origin-cartridge-haproxy
+rpm__split__nodejs-rc
+rpm__split__openshift-origin-cartridge-php
+rpm__split__nodejs-slide
+rpm__split__openshift-origin-cartridge-cron
+rpm__split__nodejs-pinkie-promise
+rpm__split__nodejs-event-stream
+rpm__split__rubygem-openshift-origin-node
+rpm__split__rhc
+rpm__split__heapster
+rpm__split__nodejs-through
+rpm__split__nodejs-pause-stream
+rpm__split__rubygem-openshift-origin-common
+rpm__split__nodejs-mkdirp
+rpm__split__openshift-origin-node-proxy
+rpm__split__nodejs-kind-of
+rpm__split__nodejs-graceful-fs
+rpm__split__nodejs-registry-url
+rpm__split__atomic-openshift
+rpm__split__nodejs-object-assign
+rpm__split__nodejs-stream-combiner
+rpm__split__nodejs-pinkie
+rpm__split__nodejs-ini
+rpm__split__openshift-enterprise-upgrade
+rpm__split__nodejs-osenv
+rpm__split__nodejs-align-text
+rpm__split__rubygem-openshift-origin-controller
+rpm__split__nodejs-read-all-stream
+rpm__split__openshift-origin-msg-node-mcollective
+rpm__split__nodejs-from
+rpm__split__nodejs-prepend-http
+rpm__split__nodejs-lowercase-keys
+rpm__split__rubygem-openshift-origin-console
+rpm__split__origin-kibana</t>
   </si>
   <si>
     <t>https://wiki.jenkins-ci.org/display/SECURITY/Jenkins+Security+Advisory+2015-11-11, the affected libraries is actually org.jenkins-ci.main</t>
@@ -116,10 +116,10 @@
     <t>CVE-2018-1000112</t>
   </si>
   <si>
-    <t>maven__fdse__org.jenkins-ci.plugins:mercurial</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.hudsonci.plugins:mercurial</t>
+    <t>maven__split__org.jenkins-ci.plugins:mercurial</t>
+  </si>
+  <si>
+    <t>maven__split__org.hudsonci.plugins:mercurial</t>
   </si>
   <si>
     <t>the group id is org.jenkins-ci.plugins not org.hudsonci.plugins (https://github.com/jenkinsci/mercurial-plugin/blob/master/pom.xml), the vulnerable file is Jenkins Mercurial Plugin in MercurialStatus.java that allows an attacker with network access to obtain a list of nodes and users.</t>
@@ -128,10 +128,10 @@
     <t>CVE-2013-0237</t>
   </si>
   <si>
-    <t>npm__fdse__plupload</t>
-  </si>
-  <si>
-    <t>bower__fdse__plupload</t>
+    <t>npm__split__plupload</t>
+  </si>
+  <si>
+    <t>bower__split__plupload</t>
   </si>
   <si>
     <t>the patch is in https://github.com/moxiecode/plupload/commit/2d746ee9083c184f1234d8fed311e89bdd1b39e5, we can find the content have xss, and then fixed, the repo is managed by npm</t>
@@ -140,10 +140,10 @@
     <t>CVE-2020-15184</t>
   </si>
   <si>
-    <t>go__fdse__helm.sh:helm:v3</t>
-  </si>
-  <si>
-    <t>go__fdse__github.com:helm:helm</t>
+    <t>go__split__helm.sh:helm:v3</t>
+  </si>
+  <si>
+    <t>go__split__github.com:helm:helm</t>
   </si>
   <si>
     <t>roll back to the patch version, https://github.com/helm/helm/blob/e7c281564d8306e1dcf8023d97f972449ad74850/go.mod, and the package name in go.mod is helm.sh/helm/v3</t>
@@ -152,12 +152,12 @@
     <t>CVE-2019-3804</t>
   </si>
   <si>
-    <t>npm__fdse__cockpit</t>
-  </si>
-  <si>
-    <t>rpm__fdse__redhat-virtualization-host
-rpm__fdse__cockpit
-rpm__fdse__redhat-release-virtualization-host</t>
+    <t>npm__split__cockpit</t>
+  </si>
+  <si>
+    <t>rpm__split__redhat-virtualization-host
+rpm__split__cockpit
+rpm__split__redhat-release-virtualization-host</t>
   </si>
   <si>
     <t>the patch is in https://github.com/cockpit-project/cockpit/commit/c51f6177576d7e12. The new version fixes bug parsing invalid base64 headers, is an npm package</t>
@@ -166,11 +166,11 @@
     <t>CVE-2012-4406</t>
   </si>
   <si>
-    <t>pypi__fdse__swift</t>
-  </si>
-  <si>
-    <t>rpm__fdse__gluster-swift
-rpm__fdse__openstack-swift</t>
+    <t>pypi__split__swift</t>
+  </si>
+  <si>
+    <t>rpm__split__gluster-swift
+rpm__split__openstack-swift</t>
   </si>
   <si>
     <t>the patch is in https://github.com/openstack/swift/commit/e1ff51c04554d51616d2845f92ab726cb0e5831a. The new version uses the loads function in the pickle Python module in a safer way. You can find swift in https://pypi.org/project/swift/</t>
@@ -179,10 +179,10 @@
     <t>CVE-2018-1000202</t>
   </si>
   <si>
-    <t>maven__fdse__org.jvnet.hudson.plugins:groovy-postbuild</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.hudsonci.plugins:groovy-postbuild</t>
+    <t>maven__split__org.jvnet.hudson.plugins:groovy-postbuild</t>
+  </si>
+  <si>
+    <t>maven__split__org.hudsonci.plugins:groovy-postbuild</t>
   </si>
   <si>
     <t>according to https://jenkins.io/security/advisory/2018-05-09/#SECURITY-821, the affected plugin is groovy-postbuild. And there is only one component in the plugin repo called org.jvnet.hudson.plugins:groovy-postbuild.</t>
@@ -191,10 +191,10 @@
     <t>CVE-2021-30080</t>
   </si>
   <si>
-    <t>go__fdse__github.com:beego:beego:v2</t>
-  </si>
-  <si>
-    <t>go__fdse__github.com:beego:beego</t>
+    <t>go__split__github.com:beego:beego:v2</t>
+  </si>
+  <si>
+    <t>go__split__github.com:beego:beego</t>
   </si>
   <si>
     <t>line 345 if strings.HasSuffix(seg, str) { inducing a latnet dangerous attack, allows attackers to bypass access control https://github.com/beego/beego/commit/d5df5e470d0a8ed291930ae802fd7e6b95226519, the package name in go.mod is github.com:beego:beego:v2 https://github.com/beego/beego/blob/d5df5e470d0a8ed291930ae802fd7e6b95226519/go.mod</t>
@@ -203,10 +203,10 @@
     <t>CVE-2022-29164</t>
   </si>
   <si>
-    <t>go__fdse__github.com:argoproj:argo-workflows:v3</t>
-  </si>
-  <si>
-    <t>go__fdse__github.com:argoproj:argo-workflows</t>
+    <t>go__split__github.com:argoproj:argo-workflows:v3</t>
+  </si>
+  <si>
+    <t>go__split__github.com:argoproj:argo-workflows</t>
   </si>
   <si>
     <t>we find the patch, https://github.com/argoproj/argo-workflows/commit/87470e1c2bf703a9110e97bb755614ce8757fdcc#diff-72bc43ba85e97ffbc0e044ec7094a0cc5a0b5f800b4989af39c09ded65cefe97, but the vulnerabiolity is fixed by add some rules, so we can only locate the added file location</t>
@@ -215,13 +215,13 @@
     <t>CVE-2020-8555</t>
   </si>
   <si>
-    <t>go__fdse__k8s.io:kubernetes</t>
-  </si>
-  <si>
-    <t>alpine__fdse__k3s:edge
-rpm__fdse__openshift
-rpm__fdse__atomic-openshift
-go__fdse__github.com:kubernetes:kubernetes</t>
+    <t>go__split__k8s.io:kubernetes</t>
+  </si>
+  <si>
+    <t>alpine__split__k3s:edge
+rpm__split__openshift
+rpm__split__atomic-openshift
+go__split__github.com:kubernetes:kubernetes</t>
   </si>
   <si>
     <t>the patch https://github.com/kubernetes/kubernetes/pull/89794/commits/63ee9b3f4f9b1286b2f4a6813cdeb767661a1a4c indicates kube-controller-manager in are vulnerable to a Server Side Request Forgery and the go.mod in https://github.com/kubernetes/kubernetes/blob/63ee9b3f4f9b1286b2f4a6813cdeb767661a1a4c/go.mod is _k8s.io not github.com:kubernetes</t>
@@ -230,10 +230,10 @@
     <t>CVE-2022-29046</t>
   </si>
   <si>
-    <t>maven__fdse__org.jenkins-ci.plugins:subversion</t>
-  </si>
-  <si>
-    <t>rpm__fdse__jenkins-2-plugins</t>
+    <t>maven__split__org.jenkins-ci.plugins:subversion</t>
+  </si>
+  <si>
+    <t>rpm__split__jenkins-2-plugins</t>
   </si>
   <si>
     <t>the onle pox file in https://github.com/jenkinsci/subversion-plugin</t>
@@ -242,10 +242,10 @@
     <t>CVE-2021-29134</t>
   </si>
   <si>
-    <t>go__fdse__code.gitea.io:gitea</t>
-  </si>
-  <si>
-    <t>alpine__fdse__gitea:edge</t>
+    <t>go__split__code.gitea.io:gitea</t>
+  </si>
+  <si>
+    <t>alpine__split__gitea:edge</t>
   </si>
   <si>
     <t>the patch version is https://github.com/go-gitea/gitea/blob/dfe21fa4c3ac04fbedc3b6fb77594eab3faf495e/go.mod</t>
@@ -254,7 +254,7 @@
     <t>CVE-2021-45330</t>
   </si>
   <si>
-    <t>go__fdse__github.com:go-gitea:gitea</t>
+    <t>go__split__github.com:go-gitea:gitea</t>
   </si>
   <si>
     <t xml:space="preserve"> in the readme of version of ralated modification, https://github.com/go-gitea/gitea/tree/71ad290b68779dbbed92aada292487a667dba952, the badge is https://godoc.org/code.gitea.io/gitea,</t>
@@ -263,29 +263,29 @@
     <t>CVE-2013-0158</t>
   </si>
   <si>
-    <t>maven__fdse__org.jenkins-ci.main:jenkins-core</t>
-  </si>
-  <si>
-    <t>rpm__fdse__rubygem-openshift-origin-msg-broker-mcollective
-rpm__fdse__rubygem-openshift-origin-dns-bind
-rpm__fdse__openshift-origin-broker-util
-rpm__fdse__ruby193-rubygem-activerecord
-rpm__fdse__openshift-origin-node-util
-rpm__fdse__openshift-origin-port-proxy
-rpm__fdse__openshift-console
-rpm__fdse__openshift-origin-cartridge-ruby-1.9-scl
-rpm__fdse__mongodb
-rpm__fdse__rubygem-openshift-origin-auth-remote-user
-rpm__fdse__rubygem-openshift-origin-node
-rpm__fdse__rubygem-openshift-origin-common
-rpm__fdse__openshift-origin-broker
-rpm__fdse__rubygem-activerecord
-rpm__fdse__ruby193-rubygem-passenger
-rpm__fdse__rubygem-openshift-origin-controller
-rpm__fdse__openshift-origin-cartridge-ruby-1.8
-rpm__fdse__openshift-origin-cartridge-haproxy-1.4
-rpm__fdse__openshift-origin-msg-node-mcollective
-rpm__fdse__rubygem-openshift-origin-console</t>
+    <t>maven__split__org.jenkins-ci.main:jenkins-core</t>
+  </si>
+  <si>
+    <t>rpm__split__rubygem-openshift-origin-msg-broker-mcollective
+rpm__split__rubygem-openshift-origin-dns-bind
+rpm__split__openshift-origin-broker-util
+rpm__split__ruby193-rubygem-activerecord
+rpm__split__openshift-origin-node-util
+rpm__split__openshift-origin-port-proxy
+rpm__split__openshift-console
+rpm__split__openshift-origin-cartridge-ruby-1.9-scl
+rpm__split__mongodb
+rpm__split__rubygem-openshift-origin-auth-remote-user
+rpm__split__rubygem-openshift-origin-node
+rpm__split__rubygem-openshift-origin-common
+rpm__split__openshift-origin-broker
+rpm__split__rubygem-activerecord
+rpm__split__ruby193-rubygem-passenger
+rpm__split__rubygem-openshift-origin-controller
+rpm__split__openshift-origin-cartridge-ruby-1.8
+rpm__split__openshift-origin-cartridge-haproxy-1.4
+rpm__split__openshift-origin-msg-node-mcollective
+rpm__split__rubygem-openshift-origin-console</t>
   </si>
   <si>
     <t>when a slave is attached and anonymous read access is enabled, allows remote attackers to obtain the master cryptographic key via unknown vectors.We can find the patch in [https://github.com/jenkinsci/jenkins/commit/a9aff088f327278a8873aef47fa8f80d3c5932fd]. The commit replaced it by the ConfidentialStore class and the ConfidentialKey class, which provides purpose-specific confidential information that are separated from each other.</t>
@@ -300,9 +300,9 @@
     <t>CVE-2013-7330</t>
   </si>
   <si>
-    <t>rpm__fdse__jenkins-plugin-openshift
-rpm__fdse__jenkins
-rpm__fdse__openshift-origin-cartridge-jenkins</t>
+    <t>rpm__split__jenkins-plugin-openshift
+rpm__split__jenkins
+rpm__split__openshift-origin-cartridge-jenkins</t>
   </si>
   <si>
     <t>the vulnerability allows remote authenticated users to configure an otherwise restricted project via vectors related to post-build actions.[https://github.com/jenkinsci/jenkins/commit/36342d71e29e0620f803a7470ce96c61761648d8]This patch makes standard post-build action refuse to let users configure a downstream project users cannot currently build. The one from parameterized-trigger will show an error in the configure screen but still lets users save the configuration.</t>
@@ -311,11 +311,11 @@
     <t>CVE-2011-3923</t>
   </si>
   <si>
-    <t>maven__fdse__org.apache.struts:struts2-core</t>
-  </si>
-  <si>
-    <t>maven__fdse__org.apache.struts.xwork:xwork-core
-maven__fdse__com.opensymphony:xwork-core</t>
+    <t>maven__split__org.apache.struts:struts2-core</t>
+  </si>
+  <si>
+    <t>maven__split__org.apache.struts.xwork:xwork-core
+maven__split__com.opensymphony:xwork-core</t>
   </si>
   <si>
     <t>The impact of this vulnerability is allowing remote attackers to bypass security protections in the ParameterInterceptor class and execute arbitrary commands.[https://github.com/apache/struts/blob/fc5d1cabe7e10ebfa32f1d872e8232f93e2cafdc/core/src/main/java/com/opensymphony/xwork2/interceptor/ParametersInterceptor.java]From this we can tell that the affected component is the ParametersInterceptor class.</t>
@@ -324,14 +324,14 @@
     <t>CVE-2020-2254</t>
   </si>
   <si>
-    <t>maven__fdse__io.jenkins.blueocean:blueocean-git-pipeline</t>
-  </si>
-  <si>
-    <t>rpm__fdse__jenkins-2-plugins
-rpm__fdse__skopeo
-rpm__fdse__podman
-rpm__fdse__openshift-clients
-rpm__fdse__runc</t>
+    <t>maven__split__io.jenkins.blueocean:blueocean-git-pipeline</t>
+  </si>
+  <si>
+    <t>rpm__split__jenkins-2-plugins
+rpm__split__skopeo
+rpm__split__podman
+rpm__split__openshift-clients
+rpm__split__runc</t>
   </si>
   <si>
     <t>The early version provides an undocumented feature flag that, when enabled, allows an attacker with Job/Configure or Job/Create permission to read arbitrary files on the Jenkins controller file system. The patch in [https://github.com/jenkinsci/blueocean-plugin/commit/e5a6ab76cf6f85f6d476d1960c42414011dcd920]remove this undocumented feature which has security issue.</t>
@@ -340,10 +340,10 @@
     <t>CVE-2020-7940</t>
   </si>
   <si>
-    <t>pypi__fdse__plone</t>
-  </si>
-  <si>
-    <t>pypi__fdse__products_cmfplone</t>
+    <t>pypi__split__plone</t>
+  </si>
+  <si>
+    <t>pypi__split__products_cmfplone</t>
   </si>
   <si>
     <t>There is no obvious way to address this vulnerability.The cve shows that this vulnerability exists in Plone 4.3 through 5.2.0. There is only one package abput Plone in pypi,so we can be sure that this vulnerability affects the Plone package.</t>
@@ -352,10 +352,10 @@
     <t>CVE-2020-13452</t>
   </si>
   <si>
-    <t>go__fdse__github.com:gotenberg:gotenberg:v7</t>
-  </si>
-  <si>
-    <t>go__fdse__github.com:thecodingmachine:gotenberg</t>
+    <t>go__split__github.com:gotenberg:gotenberg:v7</t>
+  </si>
+  <si>
+    <t>go__split__github.com:thecodingmachine:gotenberg</t>
   </si>
   <si>
     <t>In Gotenberg through 6.2.1, insecure permissions for tini (writable by user gotenberg) potentially allow an attacker to overwrite the file, which can lead to denial of service or code execution. [https://github.com/gotenberg/gotenberg/pull/208/commits/dbdf8871cc2ce2e55c6525bd7485882aff6a8637].After fixing,tini no more writeable by gotenberg user.</t>
@@ -1523,7 +1523,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A1:$XFD23"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1630,7 +1630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="182" spans="1:5">
+    <row r="7" ht="210" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" ht="196" spans="1:5">
+    <row r="12" ht="210" spans="1:5">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" ht="168" spans="1:5">
+    <row r="18" ht="182" spans="1:5">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" ht="168" spans="1:5">
+    <row r="23" ht="182" spans="1:5">
       <c r="A23" t="s">
         <v>5</v>
       </c>
